--- a/templates/walkthroughs/Silver_Walkthrough.xlsx
+++ b/templates/walkthroughs/Silver_Walkthrough.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -79,6 +79,14 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00006100"/>
       <sz val="12"/>
     </font>
@@ -86,6 +94,9 @@
       <b val="1"/>
       <color rgb="00C00000"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <color rgb="00C00000"/>
     </font>
   </fonts>
   <fills count="6">
@@ -138,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -159,6 +170,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4605,7 +4620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4619,98 +4634,161 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>REFERENCE - SILVER PATTERNS</t>
+          <t>REFERENCE - SILVER LAYER RULES</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="inlineStr">
         <is>
-          <t>WHAT BELONGS IN SILVER</t>
+          <t>THE ONE-SOURCE TEST</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>✅ Deduplication</t>
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>"Could this node run if only ONE business source system existed?"</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>✅ Remove bad characters</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>✅ Handle nulls</t>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Reference/lookup tables don't count - they're supporting data, not source systems.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>✅ Type casting</t>
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>✅ ALLOWED IN SILVER</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>✅ Code mapping</t>
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>✅ Deduplicate (remove exact duplicates)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>✅ Lookup enrichment</t>
+      <c r="A9" s="17" t="inlineStr">
+        <is>
+          <t>✅ Clean text (trim, case, remove bad chars)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>✅ Cast data types</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="inlineStr">
-        <is>
-          <t>WHAT DOES NOT BELONG</t>
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>✅ Standardize codes (M1 → Machine 1)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>❌ UNION multiple sources</t>
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t>✅ Join with reference/lookup tables</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>❌ Business KPIs</t>
+      <c r="A13" s="17" t="inlineStr">
+        <is>
+          <t>✅ Enrich via dimension lookups (code → name)</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>❌ Building dimensions with SKs</t>
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>✅ Validate and flag bad data</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>❌ SCD2 tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>❌ Cross-fact joins</t>
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t>✅ Self-joins within the same source</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="inlineStr">
+        <is>
+          <t>❌ NOT ALLOWED IN SILVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="inlineStr">
+        <is>
+          <t>❌ Join multiple business source systems (SAP + Salesforce → Gold)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="inlineStr">
+        <is>
+          <t>❌ UNION multiple source systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="inlineStr">
+        <is>
+          <t>❌ Build dimensions with surrogate keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="inlineStr">
+        <is>
+          <t>❌ SCD2 history tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="inlineStr">
+        <is>
+          <t>❌ Cross-source conformed dimensions</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="inlineStr">
+        <is>
+          <t>❌ Business KPIs or aggregations</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>EXAMPLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>✅ orders JOIN product_codes (lookup) = Silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="inlineStr">
+        <is>
+          <t>❌ sap_orders JOIN salesforce_customers = Gold</t>
         </is>
       </c>
     </row>
